--- a/schedule(03.04.2023-08.04.2023).xlsx
+++ b/schedule(03.04.2023-08.04.2023).xlsx
@@ -903,7 +903,7 @@
       <top style="thin">
         <color rgb="00000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
       <diagonal>
@@ -938,36 +938,6 @@
         <color rgb="00000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal>
-        <color rgb="00000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
@@ -1000,6 +970,56 @@
       </diagonal>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="00000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1043,27 +1063,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="00000000"/>
@@ -1363,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1405,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1428,7 +1428,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1443,20 +1443,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1468,14 +1468,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="34" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1486,14 +1486,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1552,7 +1552,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1588,6 +1588,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -1596,17 +1599,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -2500,7 +2500,7 @@
       <c r="P5" s="1" t="inlineStr"/>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>«31» марта 2023г.</t>
+          <t>«_3_»_марта_2023г.</t>
         </is>
       </c>
       <c r="R5" s="4" t="n"/>
@@ -5451,7 +5451,7 @@
       <c r="C27" s="40" t="n"/>
       <c r="D27" s="53" t="inlineStr">
         <is>
-          <t>ауд. 612</t>
+          <t>ауд. 526</t>
         </is>
       </c>
       <c r="E27" s="54" t="n"/>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="P27" s="53" t="inlineStr">
         <is>
-          <t>ауд. 612</t>
+          <t>ауд. 526</t>
         </is>
       </c>
       <c r="Q27" s="54" t="n"/>
@@ -5814,7 +5814,11 @@
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="M29" s="50" t="inlineStr"/>
+      <c r="M29" s="50" t="inlineStr">
+        <is>
+          <t>Кажекина Л.В. (ст.пр.)</t>
+        </is>
+      </c>
       <c r="N29" s="51" t="inlineStr"/>
       <c r="O29" s="50" t="inlineStr">
         <is>
@@ -5976,7 +5980,11 @@
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="M30" s="56" t="inlineStr"/>
+      <c r="M30" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 219</t>
+        </is>
+      </c>
       <c r="N30" s="57" t="inlineStr"/>
       <c r="O30" s="53" t="inlineStr">
         <is>
@@ -7447,14 +7455,18 @@
       <c r="G43" s="76" t="inlineStr"/>
       <c r="H43" s="75" t="inlineStr"/>
       <c r="I43" s="76" t="inlineStr"/>
-      <c r="J43" s="75" t="inlineStr"/>
-      <c r="K43" s="76" t="inlineStr"/>
+      <c r="J43" s="77" t="inlineStr">
+        <is>
+          <t>Дискретная математика и математическая логика (лк)</t>
+        </is>
+      </c>
+      <c r="K43" s="78" t="n"/>
       <c r="L43" s="75" t="inlineStr"/>
       <c r="M43" s="76" t="inlineStr"/>
       <c r="N43" s="75" t="inlineStr"/>
       <c r="O43" s="76" t="inlineStr"/>
       <c r="P43" s="77" t="inlineStr"/>
-      <c r="Q43" s="78" t="inlineStr">
+      <c r="Q43" s="79" t="inlineStr">
         <is>
           <t>Системная интеграция и конфигурирование программного обеспечения (лаб)</t>
         </is>
@@ -7565,8 +7577,12 @@
       <c r="G44" s="62" t="inlineStr"/>
       <c r="H44" s="61" t="inlineStr"/>
       <c r="I44" s="62" t="inlineStr"/>
-      <c r="J44" s="61" t="inlineStr"/>
-      <c r="K44" s="62" t="inlineStr"/>
+      <c r="J44" s="51" t="inlineStr">
+        <is>
+          <t>Караулова Т.Б. (ст.пр.)</t>
+        </is>
+      </c>
+      <c r="K44" s="52" t="n"/>
       <c r="L44" s="61" t="inlineStr"/>
       <c r="M44" s="62" t="inlineStr"/>
       <c r="N44" s="61" t="inlineStr"/>
@@ -7578,7 +7594,7 @@
         </is>
       </c>
       <c r="R44" s="51" t="inlineStr"/>
-      <c r="S44" s="79" t="inlineStr">
+      <c r="S44" s="80" t="inlineStr">
         <is>
           <t>Денисенко Т.А. (пр.)</t>
         </is>
@@ -7683,8 +7699,12 @@
       <c r="G45" s="65" t="inlineStr"/>
       <c r="H45" s="64" t="inlineStr"/>
       <c r="I45" s="65" t="inlineStr"/>
-      <c r="J45" s="64" t="inlineStr"/>
-      <c r="K45" s="65" t="inlineStr"/>
+      <c r="J45" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 534</t>
+        </is>
+      </c>
+      <c r="K45" s="54" t="n"/>
       <c r="L45" s="64" t="inlineStr"/>
       <c r="M45" s="65" t="inlineStr"/>
       <c r="N45" s="64" t="inlineStr"/>
@@ -8000,7 +8020,7 @@
       </c>
       <c r="Q47" s="52" t="n"/>
       <c r="R47" s="51" t="inlineStr"/>
-      <c r="S47" s="79" t="inlineStr">
+      <c r="S47" s="80" t="inlineStr">
         <is>
           <t>Денисенко Т.А. (пр.)</t>
         </is>
@@ -9497,7 +9517,7 @@
       </c>
       <c r="J57" s="53" t="inlineStr">
         <is>
-          <t>ауд. 317</t>
+          <t>ауд. 526</t>
         </is>
       </c>
       <c r="K57" s="54" t="n"/>
@@ -9525,7 +9545,7 @@
       <c r="Q57" s="65" t="inlineStr"/>
       <c r="R57" s="55" t="inlineStr">
         <is>
-          <t>ауд. 526</t>
+          <t>ауд. 317</t>
         </is>
       </c>
       <c r="S57" s="43" t="n"/>
@@ -10980,7 +11000,7 @@
       </c>
       <c r="K70" s="38" t="n"/>
       <c r="L70" s="38" t="n"/>
-      <c r="M70" s="80" t="n"/>
+      <c r="M70" s="78" t="n"/>
       <c r="N70" s="75" t="inlineStr"/>
       <c r="O70" s="76" t="inlineStr"/>
       <c r="P70" s="77" t="inlineStr">
@@ -12555,7 +12575,7 @@
       <c r="G81" s="54" t="n"/>
       <c r="H81" s="53" t="inlineStr">
         <is>
-          <t>ауд. 143</t>
+          <t>ауд. 213</t>
         </is>
       </c>
       <c r="I81" s="54" t="n"/>
@@ -12577,7 +12597,7 @@
       <c r="M81" s="54" t="n"/>
       <c r="N81" s="53" t="inlineStr">
         <is>
-          <t>ауд. 517</t>
+          <t>ауд. 319</t>
         </is>
       </c>
       <c r="O81" s="53" t="inlineStr">
@@ -12597,7 +12617,7 @@
       </c>
       <c r="R81" s="55" t="inlineStr">
         <is>
-          <t>ауд. 612а</t>
+          <t>ауд. 317</t>
         </is>
       </c>
       <c r="S81" s="43" t="n"/>
@@ -13037,8 +13057,12 @@
           <t>6     (16.35-18.00)</t>
         </is>
       </c>
-      <c r="D85" s="58" t="inlineStr"/>
-      <c r="E85" s="59" t="inlineStr"/>
+      <c r="D85" s="46" t="inlineStr"/>
+      <c r="E85" s="46" t="inlineStr">
+        <is>
+          <t>Физика (лаб)</t>
+        </is>
+      </c>
       <c r="F85" s="58" t="inlineStr"/>
       <c r="G85" s="59" t="inlineStr"/>
       <c r="H85" s="58" t="inlineStr"/>
@@ -13147,8 +13171,12 @@
       <c r="A86" s="17" t="n"/>
       <c r="B86" s="18" t="n"/>
       <c r="C86" s="19" t="n"/>
-      <c r="D86" s="61" t="inlineStr"/>
-      <c r="E86" s="62" t="inlineStr"/>
+      <c r="D86" s="51" t="inlineStr"/>
+      <c r="E86" s="50" t="inlineStr">
+        <is>
+          <t>Пышненко О.В. (ст.пр.)</t>
+        </is>
+      </c>
       <c r="F86" s="61" t="inlineStr"/>
       <c r="G86" s="62" t="inlineStr"/>
       <c r="H86" s="61" t="inlineStr"/>
@@ -13257,8 +13285,12 @@
       <c r="A87" s="17" t="n"/>
       <c r="B87" s="18" t="n"/>
       <c r="C87" s="40" t="n"/>
-      <c r="D87" s="64" t="inlineStr"/>
-      <c r="E87" s="65" t="inlineStr"/>
+      <c r="D87" s="57" t="inlineStr"/>
+      <c r="E87" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 216</t>
+        </is>
+      </c>
       <c r="F87" s="64" t="inlineStr"/>
       <c r="G87" s="65" t="inlineStr"/>
       <c r="H87" s="64" t="inlineStr"/>
@@ -14377,26 +14409,26 @@
           <t>1     (08.00-09.25)</t>
         </is>
       </c>
-      <c r="D97" s="77" t="inlineStr"/>
-      <c r="E97" s="77" t="inlineStr">
-        <is>
-          <t>Физика (лаб)</t>
-        </is>
-      </c>
-      <c r="F97" s="75" t="inlineStr"/>
-      <c r="G97" s="76" t="inlineStr"/>
-      <c r="H97" s="75" t="inlineStr"/>
-      <c r="I97" s="76" t="inlineStr"/>
-      <c r="J97" s="75" t="inlineStr"/>
-      <c r="K97" s="76" t="inlineStr"/>
-      <c r="L97" s="75" t="inlineStr"/>
-      <c r="M97" s="76" t="inlineStr"/>
-      <c r="N97" s="75" t="inlineStr"/>
-      <c r="O97" s="76" t="inlineStr"/>
-      <c r="P97" s="75" t="inlineStr"/>
-      <c r="Q97" s="76" t="inlineStr"/>
-      <c r="R97" s="75" t="inlineStr"/>
-      <c r="S97" s="82" t="inlineStr"/>
+      <c r="D97" s="37" t="inlineStr">
+        <is>
+          <t>Курат. час</t>
+        </is>
+      </c>
+      <c r="E97" s="38" t="n"/>
+      <c r="F97" s="38" t="n"/>
+      <c r="G97" s="38" t="n"/>
+      <c r="H97" s="38" t="n"/>
+      <c r="I97" s="38" t="n"/>
+      <c r="J97" s="38" t="n"/>
+      <c r="K97" s="38" t="n"/>
+      <c r="L97" s="38" t="n"/>
+      <c r="M97" s="38" t="n"/>
+      <c r="N97" s="38" t="n"/>
+      <c r="O97" s="38" t="n"/>
+      <c r="P97" s="38" t="n"/>
+      <c r="Q97" s="38" t="n"/>
+      <c r="R97" s="38" t="n"/>
+      <c r="S97" s="10" t="n"/>
       <c r="T97" s="2" t="inlineStr"/>
       <c r="U97" s="2" t="inlineStr"/>
       <c r="V97" s="2" t="inlineStr"/>
@@ -14491,26 +14523,26 @@
       <c r="A98" s="17" t="n"/>
       <c r="B98" s="18" t="n"/>
       <c r="C98" s="19" t="n"/>
-      <c r="D98" s="51" t="inlineStr"/>
-      <c r="E98" s="50" t="inlineStr">
-        <is>
-          <t>Пышненко О.В. (ст.пр.)</t>
-        </is>
-      </c>
-      <c r="F98" s="61" t="inlineStr"/>
-      <c r="G98" s="62" t="inlineStr"/>
-      <c r="H98" s="61" t="inlineStr"/>
-      <c r="I98" s="62" t="inlineStr"/>
-      <c r="J98" s="61" t="inlineStr"/>
-      <c r="K98" s="62" t="inlineStr"/>
-      <c r="L98" s="61" t="inlineStr"/>
-      <c r="M98" s="62" t="inlineStr"/>
-      <c r="N98" s="61" t="inlineStr"/>
-      <c r="O98" s="62" t="inlineStr"/>
-      <c r="P98" s="61" t="inlineStr"/>
-      <c r="Q98" s="62" t="inlineStr"/>
-      <c r="R98" s="61" t="inlineStr"/>
-      <c r="S98" s="63" t="inlineStr"/>
+      <c r="D98" s="39" t="inlineStr">
+        <is>
+          <t>Актовый зал</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="n"/>
+      <c r="F98" s="4" t="n"/>
+      <c r="G98" s="4" t="n"/>
+      <c r="H98" s="4" t="n"/>
+      <c r="I98" s="4" t="n"/>
+      <c r="J98" s="4" t="n"/>
+      <c r="K98" s="4" t="n"/>
+      <c r="L98" s="4" t="n"/>
+      <c r="M98" s="4" t="n"/>
+      <c r="N98" s="4" t="n"/>
+      <c r="O98" s="4" t="n"/>
+      <c r="P98" s="4" t="n"/>
+      <c r="Q98" s="4" t="n"/>
+      <c r="R98" s="4" t="n"/>
+      <c r="S98" s="18" t="n"/>
       <c r="T98" s="2" t="inlineStr"/>
       <c r="U98" s="2" t="inlineStr"/>
       <c r="V98" s="2" t="inlineStr"/>
@@ -14605,26 +14637,22 @@
       <c r="A99" s="17" t="n"/>
       <c r="B99" s="18" t="n"/>
       <c r="C99" s="40" t="n"/>
-      <c r="D99" s="57" t="inlineStr"/>
-      <c r="E99" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 216</t>
-        </is>
-      </c>
-      <c r="F99" s="64" t="inlineStr"/>
-      <c r="G99" s="65" t="inlineStr"/>
-      <c r="H99" s="64" t="inlineStr"/>
-      <c r="I99" s="65" t="inlineStr"/>
-      <c r="J99" s="64" t="inlineStr"/>
-      <c r="K99" s="65" t="inlineStr"/>
-      <c r="L99" s="64" t="inlineStr"/>
-      <c r="M99" s="65" t="inlineStr"/>
-      <c r="N99" s="64" t="inlineStr"/>
-      <c r="O99" s="65" t="inlineStr"/>
-      <c r="P99" s="64" t="inlineStr"/>
-      <c r="Q99" s="65" t="inlineStr"/>
-      <c r="R99" s="64" t="inlineStr"/>
-      <c r="S99" s="66" t="inlineStr"/>
+      <c r="D99" s="41" t="inlineStr"/>
+      <c r="E99" s="42" t="n"/>
+      <c r="F99" s="42" t="n"/>
+      <c r="G99" s="42" t="n"/>
+      <c r="H99" s="42" t="n"/>
+      <c r="I99" s="42" t="n"/>
+      <c r="J99" s="42" t="n"/>
+      <c r="K99" s="42" t="n"/>
+      <c r="L99" s="42" t="n"/>
+      <c r="M99" s="42" t="n"/>
+      <c r="N99" s="42" t="n"/>
+      <c r="O99" s="42" t="n"/>
+      <c r="P99" s="42" t="n"/>
+      <c r="Q99" s="42" t="n"/>
+      <c r="R99" s="42" t="n"/>
+      <c r="S99" s="43" t="n"/>
       <c r="T99" s="2" t="inlineStr"/>
       <c r="U99" s="2" t="inlineStr"/>
       <c r="V99" s="2" t="inlineStr"/>
@@ -14725,49 +14753,49 @@
       </c>
       <c r="D100" s="46" t="inlineStr">
         <is>
-          <t>Основы алгоритмизации и программирования (лк)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="E100" s="47" t="n"/>
       <c r="F100" s="46" t="inlineStr">
         <is>
-          <t>Элементарная математика (лк)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="G100" s="47" t="n"/>
       <c r="H100" s="46" t="inlineStr">
         <is>
-          <t>Белорусский язык (профессиональная лексика) (пз)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="I100" s="47" t="n"/>
       <c r="J100" s="46" t="inlineStr">
         <is>
-          <t>Дискретная математика и математическая логика (лк)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="K100" s="47" t="n"/>
       <c r="L100" s="46" t="inlineStr">
         <is>
-          <t>Линейная алгебра (пз)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="M100" s="47" t="n"/>
       <c r="N100" s="46" t="inlineStr">
         <is>
-          <t>Основы алгоритмизации и программирования (лк)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="O100" s="47" t="n"/>
       <c r="P100" s="46" t="inlineStr">
         <is>
-          <t>Высшая математика (пз)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="Q100" s="47" t="n"/>
       <c r="R100" s="48" t="inlineStr">
         <is>
-          <t>Основы алгоритмизации и программирования (лк)</t>
+          <t>Курат. час</t>
         </is>
       </c>
       <c r="S100" s="49" t="n"/>
@@ -14867,7 +14895,7 @@
       <c r="C101" s="19" t="n"/>
       <c r="D101" s="51" t="inlineStr">
         <is>
-          <t>Корчевская Е.А. (доц.)</t>
+          <t>Караулова Т.Б. (ст.пр.)</t>
         </is>
       </c>
       <c r="E101" s="52" t="n"/>
@@ -14879,37 +14907,37 @@
       <c r="G101" s="52" t="n"/>
       <c r="H101" s="51" t="inlineStr">
         <is>
-          <t>Зайцева Е.А. (ст.пр.)</t>
+          <t>Иванова Л.В. (пр.)</t>
         </is>
       </c>
       <c r="I101" s="52" t="n"/>
       <c r="J101" s="51" t="inlineStr">
         <is>
-          <t>Караулова Т.Б. (ст.пр.)</t>
+          <t>Исаченко Ю.В. (пр.)</t>
         </is>
       </c>
       <c r="K101" s="52" t="n"/>
       <c r="L101" s="51" t="inlineStr">
         <is>
-          <t>Александрович Т.А. (ст.пр.)</t>
+          <t>Столяренко А.Ю. (пр.)</t>
         </is>
       </c>
       <c r="M101" s="52" t="n"/>
       <c r="N101" s="51" t="inlineStr">
         <is>
-          <t>Корчевская Е.А. (доц.)</t>
+          <t>Денисенко Т.А. (пр.)</t>
         </is>
       </c>
       <c r="O101" s="52" t="n"/>
       <c r="P101" s="51" t="inlineStr">
         <is>
-          <t>Шлапаков С.А. (доц.)</t>
+          <t>Павлыш Э.В. (доц.)</t>
         </is>
       </c>
       <c r="Q101" s="52" t="n"/>
       <c r="R101" s="39" t="inlineStr">
         <is>
-          <t>Корчевская Е.А. (доц.)</t>
+          <t>Сапелко Т.И. (ст.пр.)</t>
         </is>
       </c>
       <c r="S101" s="18" t="n"/>
@@ -15027,7 +15055,7 @@
       <c r="I102" s="54" t="n"/>
       <c r="J102" s="53" t="inlineStr">
         <is>
-          <t>ауд. 536</t>
+          <t>ауд. 303</t>
         </is>
       </c>
       <c r="K102" s="54" t="n"/>
@@ -15039,7 +15067,7 @@
       <c r="M102" s="54" t="n"/>
       <c r="N102" s="53" t="inlineStr">
         <is>
-          <t>ауд. 141</t>
+          <t>ауд. 308</t>
         </is>
       </c>
       <c r="O102" s="54" t="n"/>
@@ -15051,7 +15079,7 @@
       <c r="Q102" s="54" t="n"/>
       <c r="R102" s="55" t="inlineStr">
         <is>
-          <t>ауд. 141</t>
+          <t>ауд. 213</t>
         </is>
       </c>
       <c r="S102" s="43" t="n"/>
@@ -15950,7 +15978,7 @@
           <t>ауд. 208</t>
         </is>
       </c>
-      <c r="S108" s="83" t="inlineStr"/>
+      <c r="S108" s="82" t="inlineStr"/>
       <c r="T108" s="2" t="inlineStr"/>
       <c r="U108" s="2" t="inlineStr"/>
       <c r="V108" s="2" t="inlineStr"/>
@@ -16085,8 +16113,12 @@
         </is>
       </c>
       <c r="O109" s="46" t="inlineStr"/>
-      <c r="P109" s="58" t="inlineStr"/>
-      <c r="Q109" s="59" t="inlineStr"/>
+      <c r="P109" s="46" t="inlineStr">
+        <is>
+          <t>Высшая математика (лк)</t>
+        </is>
+      </c>
+      <c r="Q109" s="47" t="n"/>
       <c r="R109" s="46" t="inlineStr">
         <is>
           <t>Молекулярная физика (лаб)</t>
@@ -16223,8 +16255,12 @@
         </is>
       </c>
       <c r="O110" s="51" t="inlineStr"/>
-      <c r="P110" s="61" t="inlineStr"/>
-      <c r="Q110" s="62" t="inlineStr"/>
+      <c r="P110" s="51" t="inlineStr">
+        <is>
+          <t>Шлапаков С.А. (доц.)</t>
+        </is>
+      </c>
+      <c r="Q110" s="52" t="n"/>
       <c r="R110" s="50" t="inlineStr">
         <is>
           <t>Денисенко Т.А. (пр.)</t>
@@ -16361,14 +16397,18 @@
         </is>
       </c>
       <c r="O111" s="57" t="inlineStr"/>
-      <c r="P111" s="64" t="inlineStr"/>
-      <c r="Q111" s="65" t="inlineStr"/>
+      <c r="P111" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 610</t>
+        </is>
+      </c>
+      <c r="Q111" s="54" t="n"/>
       <c r="R111" s="53" t="inlineStr">
         <is>
           <t>ауд. 208</t>
         </is>
       </c>
-      <c r="S111" s="83" t="inlineStr"/>
+      <c r="S111" s="82" t="inlineStr"/>
       <c r="T111" s="2" t="inlineStr"/>
       <c r="U111" s="2" t="inlineStr"/>
       <c r="V111" s="2" t="inlineStr"/>
@@ -16477,31 +16517,23 @@
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="F112" s="46" t="inlineStr">
+      <c r="F112" s="46" t="inlineStr"/>
+      <c r="G112" s="46" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="G112" s="46" t="inlineStr">
+      <c r="H112" s="46" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="H112" s="46" t="inlineStr">
+      <c r="I112" s="46" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)(фак-в)</t>
         </is>
       </c>
-      <c r="I112" s="46" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
-      <c r="J112" s="46" t="inlineStr">
-        <is>
-          <t>Иностранный язык (пз)(фак-в)</t>
-        </is>
-      </c>
+      <c r="J112" s="46" t="inlineStr"/>
       <c r="K112" s="46" t="inlineStr">
         <is>
           <t>Иностранный язык (пз)(фак-в)</t>
@@ -16647,31 +16679,23 @@
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="F113" s="50" t="inlineStr">
+      <c r="F113" s="51" t="inlineStr"/>
+      <c r="G113" s="50" t="inlineStr">
         <is>
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="G113" s="50" t="inlineStr">
+      <c r="H113" s="50" t="inlineStr">
         <is>
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="H113" s="50" t="inlineStr">
+      <c r="I113" s="50" t="inlineStr">
         <is>
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="I113" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
-      <c r="J113" s="50" t="inlineStr">
-        <is>
-          <t>Гончарова С.А. (пр.)</t>
-        </is>
-      </c>
+      <c r="J113" s="51" t="inlineStr"/>
       <c r="K113" s="50" t="inlineStr">
         <is>
           <t>Гончарова С.А. (пр.)</t>
@@ -16817,70 +16841,62 @@
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="F114" s="53" t="inlineStr">
+      <c r="F114" s="57" t="inlineStr"/>
+      <c r="G114" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="G114" s="53" t="inlineStr">
+      <c r="H114" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="H114" s="53" t="inlineStr">
+      <c r="I114" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="I114" s="53" t="inlineStr">
+      <c r="J114" s="57" t="inlineStr"/>
+      <c r="K114" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="J114" s="53" t="inlineStr">
+      <c r="L114" s="53" t="inlineStr">
         <is>
           <t>ауд. 517</t>
         </is>
       </c>
-      <c r="K114" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
-      <c r="L114" s="53" t="inlineStr">
-        <is>
-          <t>ауд. 517</t>
-        </is>
-      </c>
       <c r="M114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="N114" s="57" t="inlineStr"/>
       <c r="O114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="P114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="Q114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="R114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="S114" s="53" t="inlineStr">
         <is>
-          <t>ауд. 219</t>
+          <t>ауд. 326</t>
         </is>
       </c>
       <c r="T114" s="2" t="inlineStr"/>
@@ -17987,8 +18003,12 @@
           <t>1     (08.00-09.25)</t>
         </is>
       </c>
-      <c r="D124" s="75" t="inlineStr"/>
-      <c r="E124" s="76" t="inlineStr"/>
+      <c r="D124" s="77" t="inlineStr">
+        <is>
+          <t>Основы алгоритмизации и программирования (лк)</t>
+        </is>
+      </c>
+      <c r="E124" s="78" t="n"/>
       <c r="F124" s="75" t="inlineStr"/>
       <c r="G124" s="76" t="inlineStr"/>
       <c r="H124" s="77" t="inlineStr">
@@ -18002,15 +18022,23 @@
           <t>Дискретная математика и математическая логика (лк)</t>
         </is>
       </c>
-      <c r="K124" s="80" t="n"/>
+      <c r="K124" s="78" t="n"/>
       <c r="L124" s="75" t="inlineStr"/>
       <c r="M124" s="76" t="inlineStr"/>
-      <c r="N124" s="75" t="inlineStr"/>
-      <c r="O124" s="76" t="inlineStr"/>
+      <c r="N124" s="77" t="inlineStr">
+        <is>
+          <t>Основы алгоритмизации и программирования (лк)</t>
+        </is>
+      </c>
+      <c r="O124" s="78" t="n"/>
       <c r="P124" s="75" t="inlineStr"/>
       <c r="Q124" s="76" t="inlineStr"/>
-      <c r="R124" s="75" t="inlineStr"/>
-      <c r="S124" s="82" t="inlineStr"/>
+      <c r="R124" s="37" t="inlineStr">
+        <is>
+          <t>Основы алгоритмизации и программирования (лк)</t>
+        </is>
+      </c>
+      <c r="S124" s="10" t="n"/>
       <c r="T124" s="2" t="inlineStr"/>
       <c r="U124" s="2" t="inlineStr"/>
       <c r="V124" s="2" t="inlineStr"/>
@@ -18105,8 +18133,12 @@
       <c r="A125" s="17" t="n"/>
       <c r="B125" s="18" t="n"/>
       <c r="C125" s="19" t="n"/>
-      <c r="D125" s="61" t="inlineStr"/>
-      <c r="E125" s="62" t="inlineStr"/>
+      <c r="D125" s="51" t="inlineStr">
+        <is>
+          <t>Корчевская Е.А. (доц.)</t>
+        </is>
+      </c>
+      <c r="E125" s="52" t="n"/>
       <c r="F125" s="61" t="inlineStr"/>
       <c r="G125" s="62" t="inlineStr"/>
       <c r="H125" s="50" t="inlineStr">
@@ -18123,12 +18155,20 @@
       <c r="K125" s="52" t="n"/>
       <c r="L125" s="61" t="inlineStr"/>
       <c r="M125" s="62" t="inlineStr"/>
-      <c r="N125" s="61" t="inlineStr"/>
-      <c r="O125" s="62" t="inlineStr"/>
+      <c r="N125" s="51" t="inlineStr">
+        <is>
+          <t>Корчевская Е.А. (доц.)</t>
+        </is>
+      </c>
+      <c r="O125" s="52" t="n"/>
       <c r="P125" s="61" t="inlineStr"/>
       <c r="Q125" s="62" t="inlineStr"/>
-      <c r="R125" s="61" t="inlineStr"/>
-      <c r="S125" s="63" t="inlineStr"/>
+      <c r="R125" s="39" t="inlineStr">
+        <is>
+          <t>Корчевская Е.А. (доц.)</t>
+        </is>
+      </c>
+      <c r="S125" s="18" t="n"/>
       <c r="T125" s="2" t="inlineStr"/>
       <c r="U125" s="2" t="inlineStr"/>
       <c r="V125" s="2" t="inlineStr"/>
@@ -18223,8 +18263,12 @@
       <c r="A126" s="17" t="n"/>
       <c r="B126" s="18" t="n"/>
       <c r="C126" s="40" t="n"/>
-      <c r="D126" s="64" t="inlineStr"/>
-      <c r="E126" s="65" t="inlineStr"/>
+      <c r="D126" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 141</t>
+        </is>
+      </c>
+      <c r="E126" s="54" t="n"/>
       <c r="F126" s="64" t="inlineStr"/>
       <c r="G126" s="65" t="inlineStr"/>
       <c r="H126" s="53" t="inlineStr">
@@ -18241,12 +18285,20 @@
       <c r="K126" s="54" t="n"/>
       <c r="L126" s="64" t="inlineStr"/>
       <c r="M126" s="65" t="inlineStr"/>
-      <c r="N126" s="64" t="inlineStr"/>
-      <c r="O126" s="65" t="inlineStr"/>
+      <c r="N126" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 141</t>
+        </is>
+      </c>
+      <c r="O126" s="54" t="n"/>
       <c r="P126" s="64" t="inlineStr"/>
       <c r="Q126" s="65" t="inlineStr"/>
-      <c r="R126" s="64" t="inlineStr"/>
-      <c r="S126" s="66" t="inlineStr"/>
+      <c r="R126" s="55" t="inlineStr">
+        <is>
+          <t>ауд. 141</t>
+        </is>
+      </c>
+      <c r="S126" s="43" t="n"/>
       <c r="T126" s="2" t="inlineStr"/>
       <c r="U126" s="2" t="inlineStr"/>
       <c r="V126" s="2" t="inlineStr"/>
@@ -18946,7 +18998,11 @@
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="M131" s="50" t="inlineStr"/>
+      <c r="M131" s="50" t="inlineStr">
+        <is>
+          <t>Гончарова С.А. (пр.)</t>
+        </is>
+      </c>
       <c r="N131" s="51" t="inlineStr">
         <is>
           <t>Пышненко О.В. (ст.пр.)</t>
@@ -19090,13 +19146,21 @@
           <t>ауд. 200е</t>
         </is>
       </c>
-      <c r="K132" s="56" t="inlineStr"/>
+      <c r="K132" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 321</t>
+        </is>
+      </c>
       <c r="L132" s="53" t="inlineStr">
         <is>
           <t>ауд. 703</t>
         </is>
       </c>
-      <c r="M132" s="56" t="inlineStr"/>
+      <c r="M132" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 703</t>
+        </is>
+      </c>
       <c r="N132" s="53" t="inlineStr">
         <is>
           <t>ауд. 418</t>
@@ -19412,7 +19476,11 @@
           <t>Гончарова С.А. (пр.)</t>
         </is>
       </c>
-      <c r="M134" s="50" t="inlineStr"/>
+      <c r="M134" s="50" t="inlineStr">
+        <is>
+          <t>Гончарова С.А. (пр.)</t>
+        </is>
+      </c>
       <c r="N134" s="51" t="inlineStr">
         <is>
           <t>Никитин А.И. (доц.)</t>
@@ -19566,7 +19634,11 @@
           <t>ауд. 703</t>
         </is>
       </c>
-      <c r="M135" s="56" t="inlineStr"/>
+      <c r="M135" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 703</t>
+        </is>
+      </c>
       <c r="N135" s="53" t="inlineStr">
         <is>
           <t>ауд. 213</t>
@@ -20129,8 +20201,12 @@
       <c r="I139" s="47" t="n"/>
       <c r="J139" s="58" t="inlineStr"/>
       <c r="K139" s="59" t="inlineStr"/>
-      <c r="L139" s="58" t="inlineStr"/>
-      <c r="M139" s="59" t="inlineStr"/>
+      <c r="L139" s="46" t="inlineStr">
+        <is>
+          <t>Линейная алгебра (пз)</t>
+        </is>
+      </c>
+      <c r="M139" s="47" t="n"/>
       <c r="N139" s="58" t="inlineStr"/>
       <c r="O139" s="59" t="inlineStr"/>
       <c r="P139" s="46" t="inlineStr">
@@ -20255,8 +20331,12 @@
       <c r="I140" s="52" t="n"/>
       <c r="J140" s="61" t="inlineStr"/>
       <c r="K140" s="62" t="inlineStr"/>
-      <c r="L140" s="61" t="inlineStr"/>
-      <c r="M140" s="62" t="inlineStr"/>
+      <c r="L140" s="51" t="inlineStr">
+        <is>
+          <t>Александрович Т.А. (ст.пр.)</t>
+        </is>
+      </c>
+      <c r="M140" s="52" t="n"/>
       <c r="N140" s="61" t="inlineStr"/>
       <c r="O140" s="62" t="inlineStr"/>
       <c r="P140" s="51" t="inlineStr">
@@ -20270,7 +20350,7 @@
           <t>Исаченко Ю.В. (пр.)</t>
         </is>
       </c>
-      <c r="S140" s="79" t="inlineStr">
+      <c r="S140" s="80" t="inlineStr">
         <is>
           <t>Степанов В.А. (пр.)</t>
         </is>
@@ -20381,8 +20461,12 @@
       <c r="I141" s="54" t="n"/>
       <c r="J141" s="64" t="inlineStr"/>
       <c r="K141" s="65" t="inlineStr"/>
-      <c r="L141" s="64" t="inlineStr"/>
-      <c r="M141" s="65" t="inlineStr"/>
+      <c r="L141" s="53" t="inlineStr">
+        <is>
+          <t>ауд. 317</t>
+        </is>
+      </c>
+      <c r="M141" s="54" t="n"/>
       <c r="N141" s="64" t="inlineStr"/>
       <c r="O141" s="65" t="inlineStr"/>
       <c r="P141" s="53" t="inlineStr">
@@ -21520,7 +21604,7 @@
       <c r="P151" s="75" t="inlineStr"/>
       <c r="Q151" s="76" t="inlineStr"/>
       <c r="R151" s="75" t="inlineStr"/>
-      <c r="S151" s="82" t="inlineStr"/>
+      <c r="S151" s="83" t="inlineStr"/>
       <c r="T151" s="2" t="inlineStr"/>
       <c r="U151" s="2" t="inlineStr"/>
       <c r="V151" s="2" t="inlineStr"/>
@@ -24982,7 +25066,7 @@
     <row r="327" ht="14.1" customHeight="1"/>
     <row r="328" ht="14.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="693">
+  <mergeCells count="705">
     <mergeCell ref="N101:O101"/>
     <mergeCell ref="P28"/>
     <mergeCell ref="O56"/>
@@ -24997,7 +25081,7 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="P140:Q140"/>
     <mergeCell ref="L111"/>
-    <mergeCell ref="M131"/>
+    <mergeCell ref="D98:S98"/>
     <mergeCell ref="G52"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="I27"/>
@@ -25036,8 +25120,8 @@
     <mergeCell ref="L56"/>
     <mergeCell ref="R140"/>
     <mergeCell ref="L107:M107"/>
+    <mergeCell ref="L105"/>
     <mergeCell ref="H105:K105"/>
-    <mergeCell ref="L105"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="Q45"/>
@@ -25045,10 +25129,12 @@
     <mergeCell ref="J71:M71"/>
     <mergeCell ref="A124:A147"/>
     <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="N102:O102"/>
     <mergeCell ref="F103"/>
     <mergeCell ref="P29"/>
+    <mergeCell ref="D126:E126"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F109:G109"/>
@@ -25069,7 +25155,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="R135"/>
     <mergeCell ref="D134"/>
-    <mergeCell ref="M30"/>
     <mergeCell ref="D129:E129"/>
     <mergeCell ref="K130"/>
     <mergeCell ref="O55"/>
@@ -25104,6 +25189,7 @@
     <mergeCell ref="C97:C99"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="L50:M50"/>
+    <mergeCell ref="E87"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="I56"/>
@@ -25112,14 +25198,16 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="P108:Q108"/>
     <mergeCell ref="M105"/>
-    <mergeCell ref="E99"/>
+    <mergeCell ref="N124:O124"/>
     <mergeCell ref="D16:S16"/>
     <mergeCell ref="H19"/>
     <mergeCell ref="F141:I141"/>
     <mergeCell ref="B97:B120"/>
     <mergeCell ref="C148:C150"/>
+    <mergeCell ref="N126:O126"/>
     <mergeCell ref="D18:S18"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P109:Q109"/>
     <mergeCell ref="H48"/>
     <mergeCell ref="D15"/>
     <mergeCell ref="R13:S13"/>
@@ -25151,8 +25239,10 @@
     <mergeCell ref="J27"/>
     <mergeCell ref="J132"/>
     <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="L139:M139"/>
     <mergeCell ref="E108"/>
     <mergeCell ref="L129"/>
+    <mergeCell ref="D97:S97"/>
     <mergeCell ref="O46"/>
     <mergeCell ref="J25"/>
     <mergeCell ref="O21"/>
@@ -25171,12 +25261,14 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="Q43"/>
     <mergeCell ref="R111"/>
+    <mergeCell ref="P111:Q111"/>
     <mergeCell ref="S43"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="M110"/>
     <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R125:S125"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="E19"/>
@@ -25192,7 +25284,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L73"/>
-    <mergeCell ref="M28"/>
     <mergeCell ref="C115:C117"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="N137"/>
@@ -25201,10 +25292,7 @@
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="C169:C171"/>
-    <mergeCell ref="M29"/>
-    <mergeCell ref="M134"/>
     <mergeCell ref="R130"/>
-    <mergeCell ref="E97"/>
     <mergeCell ref="E47"/>
     <mergeCell ref="A16:A39"/>
     <mergeCell ref="H135"/>
@@ -25215,7 +25303,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="P129:S129"/>
-    <mergeCell ref="E98"/>
     <mergeCell ref="G27"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="L28"/>
@@ -25237,9 +25324,9 @@
     <mergeCell ref="N133:O133"/>
     <mergeCell ref="H136:I136"/>
     <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="L104"/>
     <mergeCell ref="C139:C141"/>
     <mergeCell ref="G108"/>
+    <mergeCell ref="L104"/>
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="B16:B39"/>
     <mergeCell ref="P112"/>
@@ -25291,6 +25378,7 @@
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="D109:E109"/>
     <mergeCell ref="R103:S103"/>
     <mergeCell ref="H77:K77"/>
@@ -25349,11 +25437,14 @@
     <mergeCell ref="L131"/>
     <mergeCell ref="R80:S80"/>
     <mergeCell ref="J81"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="D46"/>
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="G107"/>
     <mergeCell ref="L103"/>
     <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R126:S126"/>
+    <mergeCell ref="D125:E125"/>
     <mergeCell ref="P72"/>
     <mergeCell ref="F104"/>
     <mergeCell ref="P13:Q13"/>
@@ -25374,6 +25465,7 @@
     <mergeCell ref="D130"/>
     <mergeCell ref="D55"/>
     <mergeCell ref="R137:S137"/>
+    <mergeCell ref="L140:M140"/>
     <mergeCell ref="H102:I102"/>
     <mergeCell ref="B151:B174"/>
     <mergeCell ref="L137:M137"/>
@@ -25386,6 +25478,7 @@
     <mergeCell ref="F25"/>
     <mergeCell ref="H125"/>
     <mergeCell ref="N109"/>
+    <mergeCell ref="L141:M141"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="C154:C156"/>
     <mergeCell ref="F75:G75"/>
@@ -25466,9 +25559,11 @@
     <mergeCell ref="C70:C72"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="E85"/>
     <mergeCell ref="G25"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="O57"/>
+    <mergeCell ref="N125:O125"/>
     <mergeCell ref="H23"/>
     <mergeCell ref="J23"/>
     <mergeCell ref="R24:S24"/>
@@ -25495,6 +25590,7 @@
     <mergeCell ref="L74"/>
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="E15"/>
+    <mergeCell ref="E86"/>
     <mergeCell ref="G15"/>
     <mergeCell ref="R102:S102"/>
     <mergeCell ref="M104"/>
@@ -25502,6 +25598,7 @@
     <mergeCell ref="J126:K126"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A70:A93"/>
+    <mergeCell ref="P110:Q110"/>
     <mergeCell ref="F140:I140"/>
     <mergeCell ref="I73"/>
     <mergeCell ref="J19:K19"/>
@@ -25516,7 +25613,6 @@
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="E106"/>
     <mergeCell ref="H134"/>
-    <mergeCell ref="M130"/>
     <mergeCell ref="O19"/>
     <mergeCell ref="N110"/>
     <mergeCell ref="L14:M14"/>
@@ -25529,8 +25625,8 @@
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="R70:S70"/>
+    <mergeCell ref="D99:S99"/>
     <mergeCell ref="E135"/>
-    <mergeCell ref="M132"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="N103:O103"/>
     <mergeCell ref="F81:G81"/>
@@ -25576,6 +25672,7 @@
     <mergeCell ref="F138:G138"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="H132:I132"/>
+    <mergeCell ref="R124:S124"/>
     <mergeCell ref="O15"/>
     <mergeCell ref="H55"/>
     <mergeCell ref="L75"/>
@@ -25593,11 +25690,9 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="R71:S71"/>
-    <mergeCell ref="M133"/>
     <mergeCell ref="R134"/>
     <mergeCell ref="S141"/>
     <mergeCell ref="H47"/>
-    <mergeCell ref="M135"/>
     <mergeCell ref="P127:S127"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="D49:E49"/>
@@ -25670,6 +25765,7 @@
     <mergeCell ref="D107"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="C100:C102"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="J70:M70"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N74:O74"/>
